--- a/Code/protocol - CAN.xlsx
+++ b/Code/protocol - CAN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="108">
   <si>
     <t>功能描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -472,6 +472,10 @@
   </si>
   <si>
     <t>SUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -628,9 +632,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -647,24 +669,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -974,7 +978,7 @@
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -986,92 +990,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="I1" s="23" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="I1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
     </row>
     <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="21"/>
+      <c r="G4" s="14"/>
       <c r="I4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="21"/>
+      <c r="K4" s="14"/>
       <c r="L4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="21"/>
+      <c r="O4" s="14"/>
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
@@ -1089,10 +1093,10 @@
       <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="13"/>
+      <c r="G5" s="16"/>
       <c r="I5" s="5" t="s">
         <v>13</v>
       </c>
@@ -1108,10 +1112,10 @@
       <c r="M5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="13"/>
+      <c r="O5" s="16"/>
     </row>
     <row r="6" spans="1:15" s="5" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
@@ -1129,10 +1133,10 @@
       <c r="E6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="16"/>
       <c r="I6" s="5" t="s">
         <v>27</v>
       </c>
@@ -1148,10 +1152,10 @@
       <c r="M6" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="13"/>
+      <c r="O6" s="16"/>
     </row>
     <row r="7" spans="1:15" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
@@ -1169,10 +1173,10 @@
       <c r="E7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="13"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="9"/>
       <c r="I7" s="5" t="s">
         <v>29</v>
@@ -1187,10 +1191,10 @@
       <c r="M7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="N7" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="O7" s="13"/>
+      <c r="O7" s="16"/>
     </row>
     <row r="8" spans="1:15" s="6" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
@@ -1208,10 +1212,10 @@
       <c r="E8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="G8" s="15"/>
+      <c r="G8" s="21"/>
       <c r="H8" s="5"/>
       <c r="I8" s="11" t="s">
         <v>93</v>
@@ -1226,10 +1230,10 @@
       <c r="M8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="13" t="s">
+      <c r="N8" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="O8" s="13"/>
+      <c r="O8" s="16"/>
     </row>
     <row r="9" spans="1:15" s="6" customFormat="1" ht="157.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
@@ -1247,10 +1251,10 @@
       <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="15"/>
+      <c r="G9" s="21"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5" t="s">
         <v>95</v>
@@ -1265,10 +1269,10 @@
       <c r="M9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="N9" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="O9" s="13"/>
+      <c r="O9" s="16"/>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -1303,66 +1307,66 @@
       <c r="M12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N12" s="17" t="s">
+      <c r="N12" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="O12" s="17"/>
+      <c r="O12" s="23"/>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="18" spans="1:17" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="I18" s="19" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="I18" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
     </row>
     <row r="21" spans="1:17" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
@@ -1374,10 +1378,10 @@
       <c r="D21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="20"/>
+      <c r="F21" s="17"/>
       <c r="I21" s="3" t="s">
         <v>33</v>
       </c>
@@ -1387,10 +1391,10 @@
       <c r="L21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M21" s="20" t="s">
+      <c r="M21" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="N21" s="20"/>
+      <c r="N21" s="17"/>
     </row>
     <row r="22" spans="1:17" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
@@ -1405,10 +1409,10 @@
       <c r="D22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="F22" s="16"/>
+      <c r="F22" s="22"/>
       <c r="I22" s="2" t="s">
         <v>68</v>
       </c>
@@ -1421,10 +1425,10 @@
       <c r="L22" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M22" s="16" t="s">
+      <c r="M22" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="N22" s="16"/>
+      <c r="N22" s="22"/>
     </row>
     <row r="23" spans="1:17" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I23" s="2" t="s">
@@ -1439,105 +1443,105 @@
       <c r="L23" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="M23" s="16" t="s">
+      <c r="M23" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="N23" s="16"/>
+      <c r="N23" s="22"/>
     </row>
     <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="L26" s="14" t="s">
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="L26" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="20" t="s">
+      <c r="G29" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="H29" s="20" t="s">
+      <c r="H29" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="I29" s="20" t="s">
+      <c r="I29" s="17" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:17" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="L30" s="25" t="s">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="L30" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
     </row>
     <row r="31" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
@@ -1558,10 +1562,10 @@
       <c r="I31" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
       <c r="Q31" s="3"/>
     </row>
     <row r="32" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
@@ -1603,12 +1607,12 @@
       <c r="I33" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="L33" s="14" t="s">
+      <c r="L33" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
     </row>
     <row r="34" spans="1:15" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
@@ -1617,8 +1621,8 @@
       <c r="B34" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="2">
-        <v>0</v>
+      <c r="C34" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>66</v>
@@ -1632,10 +1636,10 @@
       <c r="I34" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
     </row>
     <row r="35" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
@@ -1708,12 +1712,21 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A1:G3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="I1:O3"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="L33:O34"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A18:G20"/>
+    <mergeCell ref="I18:O20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
     <mergeCell ref="I29:I30"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="B4:C4"/>
@@ -1730,21 +1743,12 @@
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="L33:O34"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="A18:G20"/>
-    <mergeCell ref="I18:O20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A1:G3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="I1:O3"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
